--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_16-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_16-22.xlsx
@@ -80,6 +80,9 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
+    <t>EMPACOZA 10 MG 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -182,10 +185,16 @@
     <t>4:2</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>TIOCON 1% CREAM 20 GM</t>
   </si>
   <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
     <t>TRICOVEL 30 TABS.</t>
@@ -1052,11 +1061,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1064,7 +1073,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1072,17 +1081,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1090,7 +1099,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1098,17 +1107,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1124,17 +1133,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1142,7 +1151,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1150,13 +1159,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1168,7 +1177,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1176,13 +1185,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1202,17 +1211,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1228,17 +1237,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1246,7 +1255,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1254,17 +1263,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1280,17 +1289,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1306,17 +1315,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1332,17 +1341,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1350,7 +1359,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1358,17 +1367,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1376,7 +1385,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1384,13 +1393,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1416,7 +1425,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1436,17 +1445,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1462,13 +1471,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1480,7 +1489,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1488,17 +1497,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1514,17 +1523,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1532,7 +1541,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1540,17 +1549,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1566,17 +1575,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1592,17 +1601,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1618,17 +1627,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1636,7 +1645,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1644,17 +1653,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1670,17 +1679,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1696,13 +1705,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>531</v>
+        <v>29</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1722,17 +1731,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>-96</v>
+        <v>23</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1748,17 +1757,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1774,13 +1783,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>53</v>
+        <v>531</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1800,17 +1809,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>14.67</v>
+        <v>-96</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1818,7 +1827,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1826,17 +1835,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1844,7 +1853,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1858,7 +1867,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1870,7 +1879,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1878,13 +1887,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>42</v>
+        <v>14.67</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1896,7 +1905,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1904,17 +1913,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1922,7 +1931,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1936,11 +1945,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1948,7 +1957,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1956,17 +1965,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1974,7 +1983,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1982,17 +1991,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>-4</v>
+        <v>96</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2000,7 +2009,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2008,17 +2017,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2026,7 +2035,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2034,13 +2043,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2052,7 +2061,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2066,45 +2075,123 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" ht="26.25" customHeight="1">
-      <c r="K52" s="10">
-        <v>2702.5700000000002</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="6">
+        <v>49</v>
+      </c>
+      <c t="s" r="B52" s="7">
+        <v>78</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c t="s" r="H52" s="8">
+        <v>14</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9">
+        <v>40</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c t="s" r="N52" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" ht="25.5" customHeight="1">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c t="s" r="B53" s="7">
         <v>79</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c t="s" r="F53" s="12">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c t="s" r="H53" s="8">
         <v>80</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c t="s" r="I53" s="14">
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9">
+        <v>80</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c t="s" r="N53" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" ht="24.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c t="s" r="B54" s="7">
         <v>81</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c t="s" r="H54" s="8">
+        <v>9</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9">
+        <v>20</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c t="s" r="N54" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" ht="26.25" customHeight="1">
+      <c r="K55" s="10">
+        <v>2848.5700000000002</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="11">
+        <v>82</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c t="s" r="F56" s="12">
+        <v>83</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
+      <c t="s" r="I56" s="14">
+        <v>84</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="155">
+  <mergeCells count="164">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2256,10 +2343,19 @@
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I56:N56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
